--- a/data/trans_orig/P57B3_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>111937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96602</v>
+        <v>95614</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>128852</v>
+        <v>130807</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1937964052517423</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1672471645365899</v>
+        <v>0.1655363789878092</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.223081783856882</v>
+        <v>0.2264659055353835</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>375</v>
@@ -762,19 +762,19 @@
         <v>208147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189430</v>
+        <v>189055</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>227355</v>
+        <v>226795</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2540411420324531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2311971252437518</v>
+        <v>0.2307393184961501</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.277484439830323</v>
+        <v>0.2768006709345689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>524</v>
@@ -783,19 +783,19 @@
         <v>320085</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>294841</v>
+        <v>294795</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>345095</v>
+        <v>346799</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2291314848649821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2110608150076233</v>
+        <v>0.2110281121330658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2470353580060882</v>
+        <v>0.2482546286410914</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>465665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448750</v>
+        <v>446795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>481000</v>
+        <v>481988</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8062035947482576</v>
+        <v>0.8062035947482578</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.776918216143118</v>
+        <v>0.7735340944646164</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8327528354634102</v>
+        <v>0.8344636210121907</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1048</v>
@@ -833,19 +833,19 @@
         <v>611198</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>591990</v>
+        <v>592550</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>629915</v>
+        <v>630290</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7459588579675469</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7225155601696769</v>
+        <v>0.7231993290654308</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7688028747562481</v>
+        <v>0.7692606815038499</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1589</v>
@@ -854,19 +854,19 @@
         <v>1076862</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1051852</v>
+        <v>1050148</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1102106</v>
+        <v>1102152</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7708685151350179</v>
+        <v>0.770868515135018</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7529646419939117</v>
+        <v>0.7517453713589081</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7889391849923766</v>
+        <v>0.7889718878669341</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>250113</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>217174</v>
+        <v>220829</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>280944</v>
+        <v>283342</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1121877792249934</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09741296914319458</v>
+        <v>0.0990525847406569</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1260168745271027</v>
+        <v>0.1270927353979002</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>326</v>
@@ -979,19 +979,19 @@
         <v>239234</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>213594</v>
+        <v>214134</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>267576</v>
+        <v>266212</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1102954782319102</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09847461492626648</v>
+        <v>0.09872353732458457</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1233621835043796</v>
+        <v>0.1227333588849005</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>583</v>
@@ -1000,19 +1000,19 @@
         <v>489347</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>450981</v>
+        <v>450726</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>532444</v>
+        <v>528437</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1112546173408788</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1025319372412177</v>
+        <v>0.1024739841339898</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1210529085640625</v>
+        <v>0.1201418365160835</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1979299</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1948468</v>
+        <v>1946070</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2012238</v>
+        <v>2008583</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8878122207750065</v>
+        <v>0.8878122207750067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8739831254728972</v>
+        <v>0.8729072646021001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9025870308568053</v>
+        <v>0.9009474152593432</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2592</v>
@@ -1050,19 +1050,19 @@
         <v>1929797</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1901455</v>
+        <v>1902819</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1955437</v>
+        <v>1954897</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8897045217680898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8766378164956203</v>
+        <v>0.8772666411150994</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9015253850737334</v>
+        <v>0.9012764626754157</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4326</v>
@@ -1071,19 +1071,19 @@
         <v>3909096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3865999</v>
+        <v>3870006</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3947462</v>
+        <v>3947717</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8887453826591212</v>
+        <v>0.8887453826591211</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8789470914359374</v>
+        <v>0.8798581634839165</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8974680627587823</v>
+        <v>0.8975260158660103</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>54989</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40915</v>
+        <v>41952</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70380</v>
+        <v>72349</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07727696479437723</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05749761029602232</v>
+        <v>0.05895499292340803</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09890516866200637</v>
+        <v>0.1016724528587188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -1196,19 +1196,19 @@
         <v>57425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46358</v>
+        <v>46262</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70624</v>
+        <v>70928</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07822204684299124</v>
+        <v>0.07822204684299122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06314619978704218</v>
+        <v>0.0630159425815872</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09620057311398786</v>
+        <v>0.09661527032279127</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -1217,19 +1217,19 @@
         <v>112415</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94447</v>
+        <v>93921</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>133713</v>
+        <v>134886</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07775687458202721</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06532891866532405</v>
+        <v>0.06496516256135149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09248894295784986</v>
+        <v>0.09330004245340118</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>656598</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>641207</v>
+        <v>639238</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>670672</v>
+        <v>669635</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9227230352056228</v>
+        <v>0.9227230352056227</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9010948313379935</v>
+        <v>0.898327547141281</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9425023897039776</v>
+        <v>0.941045007076592</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>921</v>
@@ -1267,19 +1267,19 @@
         <v>676706</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>663507</v>
+        <v>663203</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>687773</v>
+        <v>687869</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9217779531570085</v>
+        <v>0.9217779531570087</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9037994268860116</v>
+        <v>0.9033847296772087</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9368538002129576</v>
+        <v>0.9369840574184127</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1548</v>
@@ -1288,19 +1288,19 @@
         <v>1333304</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1312006</v>
+        <v>1310833</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1351272</v>
+        <v>1351798</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9222431254179728</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9075110570421504</v>
+        <v>0.9066999575465987</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.934671081334676</v>
+        <v>0.9350348374386485</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>417039</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>380088</v>
+        <v>383421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>458732</v>
+        <v>456532</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1185241653137295</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1080224329956599</v>
+        <v>0.1089697778056404</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1303733508210049</v>
+        <v>0.1297482870626595</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>783</v>
@@ -1413,19 +1413,19 @@
         <v>504807</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>473837</v>
+        <v>469723</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>543471</v>
+        <v>540332</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1356093856758004</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1272897494071063</v>
+        <v>0.1261845173787541</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1459960587690293</v>
+        <v>0.1451525707873394</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1243</v>
@@ -1434,19 +1434,19 @@
         <v>921846</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>874150</v>
+        <v>870718</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>977570</v>
+        <v>977211</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.127307331825117</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1207204876608579</v>
+        <v>0.120246472872891</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.135002872064043</v>
+        <v>0.134953239030789</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>3101562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3059869</v>
+        <v>3062069</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3138513</v>
+        <v>3135180</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8814758346862706</v>
+        <v>0.8814758346862704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8696266491789953</v>
+        <v>0.8702517129373405</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8919775670043402</v>
+        <v>0.8910302221943598</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4561</v>
@@ -1484,19 +1484,19 @@
         <v>3217701</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3179037</v>
+        <v>3182176</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3248671</v>
+        <v>3252785</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8643906143241997</v>
+        <v>0.8643906143241996</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8540039412309707</v>
+        <v>0.8548474292126605</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8727102505928936</v>
+        <v>0.8738154826212459</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7463</v>
@@ -1505,19 +1505,19 @@
         <v>6319262</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6263538</v>
+        <v>6263897</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6366958</v>
+        <v>6370390</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.872692668174883</v>
+        <v>0.8726926681748829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8649971279359571</v>
+        <v>0.8650467609692111</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.879279512339142</v>
+        <v>0.879753527127109</v>
       </c>
     </row>
     <row r="15">
